--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1077238.831819332</v>
+        <v>1127073.496095384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7068882.751732575</v>
+        <v>7081509.015269496</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>326.8753561036517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>138.6311331455841</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>37.65555071235404</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>100.130497335768</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>198.1803920378635</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3008974898682</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>199.4521447952254</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.4789331224958</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>55.11184811679099</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.7517830815114</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329198</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64034175572626</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015872</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225715</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602625</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>132.7957673084565</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170532</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>184.1155482733016</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>412.2077022164166</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>219.0074848067233</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>61.06386613909961</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>166.162536832921</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283468</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946032</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>20.28369113775187</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>107.5742260334158</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.62483121292213</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>24.62703520776708</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551486</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3196,13 +3196,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>54.49360828358916</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791327482</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>35.75633396116321</v>
+        <v>5.990622819018719</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791327482</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752552</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>63.51633119327846</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430779</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>79.91587893911147</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3946,10 +3946,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>27.18442331492863</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884123</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.412621479132298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>191.014862486381</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.2671526254254</v>
+        <v>225.1454739790289</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1925.249953619478</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>1487.107480802902</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>1051.197695977346</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>617.4229511356411</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>189.5555215448489</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>189.5555215448489</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2370.897303144613</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>2355.795243764328</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>2351.549524104386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>734.0120466529457</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>561.4503351361707</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>225.8143385884306</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.2355322066977</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>786.4454139746588</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1245.929281155572</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1688.188084313216</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538997</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2296.122858807336</v>
       </c>
       <c r="T4" t="n">
-        <v>1637.729698975331</v>
+        <v>2050.243412385791</v>
       </c>
       <c r="U4" t="n">
-        <v>1637.729698975331</v>
+        <v>1771.810411638896</v>
       </c>
       <c r="V4" t="n">
-        <v>1637.729698975331</v>
+        <v>1670.668495138121</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.729698975331</v>
+        <v>1398.642090724412</v>
       </c>
       <c r="X4" t="n">
-        <v>1392.337944308743</v>
+        <v>1153.250336057825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>925.8306653719328</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1434.694206920162</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>1400.592138143989</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.207393204728</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>2394.921413819597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>2390.675694159654</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892337</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075761</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>922.122519250205</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989009</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>438.5865562081087</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105242</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105242</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105242</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509618</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>799.2208677225248</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>626.6591562057497</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>460.7811634072723</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>291.0231596580096</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>291.0231596580096</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838373</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296482</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976092</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1184.792973096703</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1184.792973096703</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090957</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1795.413153651377</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1795.413153651377</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1795.413153651377</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1508.457645521808</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1236.431241108099</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>991.0394864415118</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>991.0394864415118</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172022</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>627.0314784854783</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362155</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>280.5664206979717</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F14" t="n">
         <v>787.680751987495</v>
@@ -5270,34 +5270,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.1339592341084</v>
+        <v>806.229814098728</v>
       </c>
       <c r="C16" t="n">
-        <v>693.5722477173333</v>
+        <v>633.6681025819529</v>
       </c>
       <c r="D16" t="n">
-        <v>527.694254918856</v>
+        <v>467.7901097834756</v>
       </c>
       <c r="E16" t="n">
-        <v>527.694254918856</v>
+        <v>298.0321060342129</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806122</v>
+        <v>121.3250519959691</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2368.178916595748</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2089.745915848853</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1802.790407719283</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1530.764003305575</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1285.372248638987</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y16" t="n">
-        <v>1057.952577953095</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.879170851551</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2073.736698034974</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1637.826913209419</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.052168367714</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
         <v>787.680751987495</v>
@@ -5507,10 +5507,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112635</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046461</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457495</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036806</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.178741336459</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>806.2298140987282</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>633.6681025819531</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>571.9874297141757</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>402.229425964913</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.84397037279</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829512</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177154</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047133</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205428</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939376</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940406</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940406</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580466</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412715</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427939</v>
+        <v>608.7923094427942</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935315</v>
       </c>
       <c r="F22" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829512</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815309</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985338</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7765985000565</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>528.0185947507937</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>351.3115407125499</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1346.306066088042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534296</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.216302815309</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C28" t="n">
-        <v>863.654591298534</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D28" t="n">
-        <v>697.7765985000567</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>528.0185947507939</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>351.3115407125501</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>185.7202657383777</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>185.7202657383777</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220187</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.034921534296</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716171</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2663.876401402277</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1852.608446104268</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023972</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771609</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004247</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.336856393764</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C37" t="n">
-        <v>790.336856393764</v>
+        <v>926.1484743011862</v>
       </c>
       <c r="D37" t="n">
-        <v>790.336856393764</v>
+        <v>760.2704815027089</v>
       </c>
       <c r="E37" t="n">
-        <v>620.5788526445012</v>
+        <v>590.5124777534462</v>
       </c>
       <c r="F37" t="n">
-        <v>443.8717986062575</v>
+        <v>413.8054237152024</v>
       </c>
       <c r="G37" t="n">
-        <v>278.2805236320851</v>
+        <v>248.2141487410301</v>
       </c>
       <c r="H37" t="n">
-        <v>138.3783493224597</v>
+        <v>108.3119744314046</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127512</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771609</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004247</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U40" t="n">
-        <v>2228.223903459162</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329592</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7409,16 +7409,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7451,10 +7451,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1008.757289365886</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562606</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577833</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702768</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7594,25 +7594,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2510.802246727525</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2232.36924598063</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>1945.413737851061</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1673.387333437352</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X43" t="n">
-        <v>1427.995578770765</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1200.575908084873</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436405</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,13 +7655,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7834,22 +7834,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2259.828259430053</v>
+        <v>2099.437508213603</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.872751300483</v>
+        <v>1812.482000084034</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.846346886775</v>
+        <v>1540.455595670325</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.454592220187</v>
+        <v>1295.063841003738</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.8975378705264</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706633</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314077</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>139.4991222164185</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,16 +9167,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.5985112554899</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>268.0111327346206</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>59.30510368402773</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11.3810530784677</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
     </row>
     <row r="18">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.1553467313929</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5985112554899</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>143.6516710866787</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>135.3636110865058</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>5.148518520149253</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>160.7958207444068</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>52.0170157719082</v>
+        <v>81.78272691405269</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>90.92021546249585</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>216.2362286424006</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>84.63380825304472</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.87832135360742</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>615430.028067412</v>
+        <v>619317.7341280869</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>615430.028067412</v>
+        <v>620418.6288904789</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>616155.1499801589</v>
+        <v>620418.6288904789</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594503.7892570951</v>
+        <v>594503.7892570948</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594503.7892570953</v>
+        <v>594503.7892570951</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594503.7892570952</v>
+        <v>594503.7892570951</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619592.5285139416</v>
+        <v>619592.5285139414</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619592.5285139414</v>
+        <v>619592.5285139416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619592.5285139414</v>
+        <v>619592.5285139413</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619592.5285139414</v>
+        <v>619592.5285139413</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619592.5285139416</v>
+        <v>619592.5285139414</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619592.5285139414</v>
+        <v>619592.5285139416</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
+        <v>315952.4362322976</v>
+      </c>
+      <c r="F2" t="n">
         <v>315952.4362322977</v>
       </c>
-      <c r="F2" t="n">
-        <v>315952.4362322979</v>
-      </c>
       <c r="G2" t="n">
+        <v>315952.4362322977</v>
+      </c>
+      <c r="H2" t="n">
         <v>315952.4362322978</v>
-      </c>
-      <c r="H2" t="n">
-        <v>315952.4362322979</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858452</v>
@@ -26338,7 +26338,7 @@
         <v>329285.9900858452</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
@@ -26353,7 +26353,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="P2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.383222885</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932127</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012789</v>
+        <v>26563.0861601279</v>
       </c>
       <c r="F4" t="n">
         <v>26563.08616012788</v>
@@ -26433,7 +26433,7 @@
         <v>26563.08616012788</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012789</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,13 +26448,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
+        <v>27684.07875020268</v>
+      </c>
+      <c r="N4" t="n">
         <v>27684.07875020262</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27684.07875020264</v>
       </c>
       <c r="P4" t="n">
         <v>27684.07875020268</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47956.40032588912</v>
+        <v>-83509.70105342488</v>
       </c>
       <c r="C6" t="n">
-        <v>94234.9003338207</v>
+        <v>112781.705763821</v>
       </c>
       <c r="D6" t="n">
-        <v>88469.52701782076</v>
+        <v>130122.2501377275</v>
       </c>
       <c r="E6" t="n">
-        <v>-7929.285957505563</v>
+        <v>54058.37402961103</v>
       </c>
       <c r="F6" t="n">
-        <v>215870.0077945224</v>
+        <v>215793.4492397255</v>
       </c>
       <c r="G6" t="n">
-        <v>215870.0077945224</v>
+        <v>215793.4492397255</v>
       </c>
       <c r="H6" t="n">
-        <v>215870.0077945224</v>
+        <v>215793.4492397256</v>
       </c>
       <c r="I6" t="n">
-        <v>205518.9570970106</v>
+        <v>205495.7327576279</v>
       </c>
       <c r="J6" t="n">
-        <v>112869.2073848599</v>
+        <v>63252.61890485402</v>
       </c>
       <c r="K6" t="n">
-        <v>223883.67272985</v>
+        <v>210046.4398226224</v>
       </c>
       <c r="L6" t="n">
-        <v>214936.0616413406</v>
+        <v>223860.4483904674</v>
       </c>
       <c r="M6" t="n">
-        <v>37092.68611938192</v>
+        <v>88870.50377746395</v>
       </c>
       <c r="N6" t="n">
-        <v>223883.6727298499</v>
+        <v>223860.4483904673</v>
       </c>
       <c r="O6" t="n">
-        <v>223883.67272985</v>
+        <v>223860.4483904673</v>
       </c>
       <c r="P6" t="n">
-        <v>223883.67272985</v>
+        <v>223860.4483904673</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.6753308736482</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>147.6077198656318</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>205.7651012449753</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>183.9554557125058</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>223.8561827421952</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>324.2497894874317</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>84.63380825304844</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3251492764967</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>114.8971719334719</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30921,7 +30921,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.8975378705264</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706633</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314077</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>139.4991222164185</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,7 +35413,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,16 +35887,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,16 +38023,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
